--- a/source/test/river/cross_section.xlsx
+++ b/source/test/river/cross_section.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mel.Meng\Documents\GitHub\SewerAnalysis\source\test\river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388ECE45-1709-4630-9F86-D84EC16ECA35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4370C050-69CD-4564-9444-C29E2D79D0F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26040" yWindow="1710" windowWidth="20775" windowHeight="12435" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,19 @@
     <sheet name="irregular_single" sheetId="7" r:id="rId4"/>
     <sheet name="irregular_multiple" sheetId="11" r:id="rId5"/>
     <sheet name="irregular_multiple_panels" sheetId="15" r:id="rId6"/>
-    <sheet name="irregular_multiple_panels_check" sheetId="16" r:id="rId7"/>
-    <sheet name="irregular_multiple_6" sheetId="12" r:id="rId8"/>
-    <sheet name="irregular_multiple_10" sheetId="13" r:id="rId9"/>
-    <sheet name="irregular_multiple_13" sheetId="14" r:id="rId10"/>
-    <sheet name="irregular_single_25" sheetId="8" r:id="rId11"/>
-    <sheet name="irregular_single_10" sheetId="9" r:id="rId12"/>
-    <sheet name="irregular_single_12" sheetId="10" r:id="rId13"/>
-    <sheet name="triangle" sheetId="5" r:id="rId14"/>
-    <sheet name="trapzoid" sheetId="3" r:id="rId15"/>
-    <sheet name="irregular2" sheetId="6" r:id="rId16"/>
+    <sheet name="irregular_multiple_panels_res" sheetId="17" r:id="rId7"/>
+    <sheet name="irregular_multiple_panels_r (2)" sheetId="19" r:id="rId8"/>
+    <sheet name="irregular_multiple_panels_check" sheetId="16" r:id="rId9"/>
+    <sheet name="irregular_multiple_6" sheetId="12" r:id="rId10"/>
+    <sheet name="irregular_multiple_8" sheetId="18" r:id="rId11"/>
+    <sheet name="irregular_multiple_10" sheetId="13" r:id="rId12"/>
+    <sheet name="irregular_multiple_13" sheetId="14" r:id="rId13"/>
+    <sheet name="irregular_single_25" sheetId="8" r:id="rId14"/>
+    <sheet name="irregular_single_10" sheetId="9" r:id="rId15"/>
+    <sheet name="irregular_single_12" sheetId="10" r:id="rId16"/>
+    <sheet name="triangle" sheetId="5" r:id="rId17"/>
+    <sheet name="trapzoid" sheetId="3" r:id="rId18"/>
+    <sheet name="irregular2" sheetId="6" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="28">
   <si>
     <t>station</t>
   </si>
@@ -98,12 +101,45 @@
   <si>
     <t>right</t>
   </si>
+  <si>
+    <t>wp</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Depth (ft)</t>
+  </si>
+  <si>
+    <t>Conveyance (ft3/s)</t>
+  </si>
+  <si>
+    <t>Area (ft2)</t>
+  </si>
+  <si>
+    <t>Width (ft)</t>
+  </si>
+  <si>
+    <t>Perimeter (ft)</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>n_average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +147,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,13 +177,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,7 +605,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_single_25!$B$1</c:f>
+              <c:f>irregular_multiple_10!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -589,66 +640,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_single_25!$A$2:$A$9</c:f>
+              <c:f>irregular_multiple_10!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12.857142857142801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>58.8888888888888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_single_25!$B$2:$B$9</c:f>
+              <c:f>irregular_multiple_10!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,7 +707,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B498-4E68-9B89-710C4B5DD255}"/>
+              <c16:uniqueId val="{00000000-D8A7-47A4-B0FA-257C263ECE41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -902,6 +953,702 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>irregular_multiple_13!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>irregular_multiple_13!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.1428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irregular_multiple_13!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B363-4CAB-94B0-BD6F52451DC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="427128688"/>
+        <c:axId val="427119832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="427128688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427119832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="427119832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427128688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irregular_single_25!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>irregular_single_25!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irregular_single_25!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B498-4E68-9B89-710C4B5DD255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="427128688"/>
+        <c:axId val="427119832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="427128688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427119832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="427119832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427128688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>irregular_single_10!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1177,7 +1924,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2919,36 +3666,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2960,11 +3677,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_multiple_panels_check!$D$1</c:f>
+              <c:f>'irregular_multiple_panels_r (2)'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Z</c:v>
+                  <c:v>d</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2995,89 +3712,110 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_multiple_panels_check!$A$2:$A$13</c:f>
+              <c:f>'irregular_multiple_panels_r (2)'!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>220.28727546453001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>1398.73701123041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>4178.1654924609902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>8332.5181539625301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>23237.562481945399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>22911.410916753401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>24958.103191271799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>39509.6300975903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>39804.8322003949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70</c:v>
+                  <c:v>43352.224880078698</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80</c:v>
+                  <c:v>47164.2668811978</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56698.943737696303</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69625.9891006119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83612.438884119605</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98676.912538837802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_multiple_panels_check!$D$2:$D$13</c:f>
+              <c:f>'irregular_multiple_panels_r (2)'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -3086,7 +3824,110 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A34-48ED-93F2-394507845ACF}"/>
+              <c16:uniqueId val="{00000000-EAAD-45E3-B81D-AA3BF7F9CB2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>icm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'irregular_multiple_panels_r (2)'!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1394.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12102.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25658.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44610.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57777.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116483.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'irregular_multiple_panels_r (2)'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAAD-45E3-B81D-AA3BF7F9CB2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3332,7 +4173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_multiple_6!$B$1</c:f>
+              <c:f>irregular_multiple_panels_check!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3367,66 +4208,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_multiple_6!$A$2:$A$9</c:f>
+              <c:f>irregular_multiple_panels_check!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>54.4444444444444</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>68.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>71</c:v>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_multiple_6!$B$2:$B$9</c:f>
+              <c:f>irregular_multiple_panels_check!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3434,7 +4299,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CCF-4943-9C47-F27FC8DAFDA2}"/>
+              <c16:uniqueId val="{00000000-3A34-48ED-93F2-394507845ACF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3680,7 +4545,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_multiple_10!$B$1</c:f>
+              <c:f>irregular_multiple_6!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3715,66 +4580,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_multiple_10!$A$2:$A$9</c:f>
+              <c:f>irregular_multiple_6!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.857142857142801</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>54.4444444444444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>68.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.8888888888888</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_multiple_10!$B$2:$B$9</c:f>
+              <c:f>irregular_multiple_6!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3782,7 +4647,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D8A7-47A4-B0FA-257C263ECE41}"/>
+              <c16:uniqueId val="{00000000-7CCF-4943-9C47-F27FC8DAFDA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4028,7 +4893,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_multiple_13!$B$1</c:f>
+              <c:f>irregular_multiple_8!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4063,66 +4928,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_multiple_13!$A$2:$A$9</c:f>
+              <c:f>irregular_multiple_8!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.1428571428571</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>56.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_multiple_13!$B$2:$B$9</c:f>
+              <c:f>irregular_multiple_8!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,7 +4995,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B363-4CAB-94B0-BD6F52451DC2}"/>
+              <c16:uniqueId val="{00000000-92EB-4EF7-8281-EDC3863BC9B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4442,6 +5307,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6865,6 +7810,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11038,6 +13015,92 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE5215F-BFE4-45AC-8A6E-4B3EA9E7931B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A423004C-FC53-4B7F-B0BC-E9013843DFB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414337</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -11077,7 +13140,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11120,7 +13183,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11337,6 +13400,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97A4CD0-2946-4154-B90D-90CFD04C3FEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -11376,7 +13482,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11419,49 +13525,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE5215F-BFE4-45AC-8A6E-4B3EA9E7931B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11482,7 +13545,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A423004C-FC53-4B7F-B0BC-E9013843DFB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146FEE2-174E-410C-892F-85C0FB2D4A6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11909,11 +13972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E6EED1-978D-4EDA-86BE-34513B2A0CB5}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF4141F-5FA0-4188-9E8D-2B208108AF08}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11934,10 +13997,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0.03</v>
@@ -11948,10 +14011,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0.03</v>
@@ -11962,10 +14025,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0.03</v>
@@ -11976,13 +14039,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>17.1428571428571</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -11990,13 +14053,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>24</v>
+        <v>54.4444444444444</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12004,10 +14067,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>30</v>
+        <v>68.3333333333333</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0.03</v>
@@ -12018,7 +14081,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -12032,71 +14095,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0.03</v>
-      </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0.03</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>60</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.03</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>70</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>0.03</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>78</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
         <v>0</v>
       </c>
     </row>
@@ -12108,6 +14115,561 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C659EC54-B63C-4FF0-8BFE-BA6CDB22A7F4}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30.4</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.03</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>56.6666666666666</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.03</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F0C07D-0D67-491E-9753-746AA1723830}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12.857142857142801</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.03</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>58.8888888888888</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>61.6666666666666</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.03</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E6EED1-978D-4EDA-86BE-34513B2A0CB5}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17.1428571428571</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.03</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.03</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0.03</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.03</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D64400B-D167-400A-96C4-458B8EB8AEA2}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -12250,7 +14812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CAFE74-973E-4E55-A0B3-F52511FBC797}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -12351,7 +14913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DBDDB1-E242-4FD3-9920-B7121E68AB18}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -12466,7 +15028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1036A-B0F5-4801-9AC0-59BA6E1B5C44}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -12537,7 +15099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A4CD2-C14E-4AD7-92E2-B669F68B9BBD}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -12622,7 +15184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D19116E-26EA-48E8-8777-DBACB25B5ECD}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -19889,8 +22451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1167B2-0754-40F2-918F-4E88DA671ECD}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20123,6 +22685,1103 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260D54F9-AD62-461E-BB09-54507FEA3760}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1394.91</v>
+      </c>
+      <c r="C3">
+        <v>13.6</v>
+      </c>
+      <c r="D3">
+        <v>13.6</v>
+      </c>
+      <c r="E3">
+        <v>14.316000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>12102.74</v>
+      </c>
+      <c r="C4">
+        <v>67.5</v>
+      </c>
+      <c r="D4">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="E4">
+        <v>24.978000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>25658.87</v>
+      </c>
+      <c r="C5">
+        <v>152.4</v>
+      </c>
+      <c r="D5">
+        <v>34.267000000000003</v>
+      </c>
+      <c r="E5">
+        <v>42.595999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>36220</v>
+      </c>
+      <c r="C6">
+        <v>236.74600000000001</v>
+      </c>
+      <c r="D6">
+        <v>50.079000000000001</v>
+      </c>
+      <c r="E6">
+        <v>63.213999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>44610.21</v>
+      </c>
+      <c r="C7">
+        <v>291.67899999999997</v>
+      </c>
+      <c r="D7">
+        <v>59.786000000000001</v>
+      </c>
+      <c r="E7">
+        <v>74.739000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>57777.91</v>
+      </c>
+      <c r="C8">
+        <v>354.92899999999997</v>
+      </c>
+      <c r="D8">
+        <v>66.713999999999999</v>
+      </c>
+      <c r="E8">
+        <v>82.825000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>116483.4</v>
+      </c>
+      <c r="C9">
+        <v>575</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>99.007999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C9576-E146-4E1B-9BB9-4B45A620EFE7}">
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>VLOOKUP(Q2,$A:$F,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" t="e">
+        <f>S2/R2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <f>VLOOKUP(Q2,A1:F209, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <f>VLOOKUP(Q2,$A:$D,4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>VLOOKUP(Q2,$A:$C,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.15814554179018</v>
+      </c>
+      <c r="D3">
+        <v>6.7999999999999901</v>
+      </c>
+      <c r="E3">
+        <v>3.3999999999999901</v>
+      </c>
+      <c r="F3">
+        <v>220.28727546453001</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1394.91</v>
+      </c>
+      <c r="M3">
+        <v>13.6</v>
+      </c>
+      <c r="N3">
+        <v>13.6</v>
+      </c>
+      <c r="O3">
+        <v>14.316000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>1394.91</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S9" si="0">VLOOKUP(Q3,$A:$F,6,FALSE)</f>
+        <v>1398.73701123041</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T9" si="1">S3/R3</f>
+        <v>1.002743554229599</v>
+      </c>
+      <c r="U3">
+        <v>13.6</v>
+      </c>
+      <c r="V3" s="1">
+        <f>VLOOKUP(Q3,A2:F210, 5)</f>
+        <v>13.5999999999999</v>
+      </c>
+      <c r="W3">
+        <v>13.6</v>
+      </c>
+      <c r="X3" s="1">
+        <f>VLOOKUP(Q3,$A:$D,4)</f>
+        <v>13.6</v>
+      </c>
+      <c r="Y3">
+        <v>14.316000000000001</v>
+      </c>
+      <c r="Z3" s="1">
+        <f>VLOOKUP(Q3,$A:$C,3,FALSE)</f>
+        <v>14.3162910835803</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>1394.91</v>
+      </c>
+      <c r="AD3">
+        <v>13.6</v>
+      </c>
+      <c r="AE3">
+        <v>13.6</v>
+      </c>
+      <c r="AF3">
+        <v>14.316000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.39999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>14.3162910835803</v>
+      </c>
+      <c r="D4">
+        <v>13.6</v>
+      </c>
+      <c r="E4">
+        <v>13.5999999999999</v>
+      </c>
+      <c r="F4">
+        <v>1398.73701123041</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>12102.74</v>
+      </c>
+      <c r="M4">
+        <v>67.5</v>
+      </c>
+      <c r="N4">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="O4">
+        <v>24.978000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>12102.74</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>23237.562481945399</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>1.9200249267476124</v>
+      </c>
+      <c r="U4">
+        <v>67.5</v>
+      </c>
+      <c r="V4" s="1">
+        <f>VLOOKUP(Q4,A3:F211, 5)</f>
+        <v>67.499999999999801</v>
+      </c>
+      <c r="W4">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="X4" s="1">
+        <f>VLOOKUP(Q4,$A:$D,4)</f>
+        <v>22.3333333333333</v>
+      </c>
+      <c r="Y4">
+        <v>24.978000000000002</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>VLOOKUP(Q4,$A:$C,3,FALSE)</f>
+        <v>24.978210517197098</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>12102.74</v>
+      </c>
+      <c r="AD4">
+        <v>67.5</v>
+      </c>
+      <c r="AE4">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="AF4">
+        <v>24.978000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C5">
+        <v>17.870264228119201</v>
+      </c>
+      <c r="D5">
+        <v>16.511111111111099</v>
+      </c>
+      <c r="E5">
+        <v>28.655555555555502</v>
+      </c>
+      <c r="F5">
+        <v>4178.1654924609902</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>25658.87</v>
+      </c>
+      <c r="M5">
+        <v>152.4</v>
+      </c>
+      <c r="N5">
+        <v>34.267000000000003</v>
+      </c>
+      <c r="O5">
+        <v>42.595999999999997</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>32064.42</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>39509.6300975903</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>1.2321953772309089</v>
+      </c>
+      <c r="U5">
+        <v>152.4</v>
+      </c>
+      <c r="V5" s="1">
+        <f>VLOOKUP(Q5,A4:F212, 5)</f>
+        <v>152.39999999999901</v>
+      </c>
+      <c r="W5">
+        <v>34.267000000000003</v>
+      </c>
+      <c r="X5" s="1">
+        <f>VLOOKUP(Q5,$A:$D,4)</f>
+        <v>34.266666666666602</v>
+      </c>
+      <c r="Y5">
+        <v>42.595999999999997</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>VLOOKUP(Q5,$A:$C,3,FALSE)</f>
+        <v>42.595756156341899</v>
+      </c>
+      <c r="AB5">
+        <v>8</v>
+      </c>
+      <c r="AC5">
+        <v>25658.87</v>
+      </c>
+      <c r="AD5">
+        <v>152.4</v>
+      </c>
+      <c r="AE5">
+        <v>34.267000000000003</v>
+      </c>
+      <c r="AF5">
+        <v>42.595999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C6">
+        <v>21.424237372658201</v>
+      </c>
+      <c r="D6">
+        <v>19.422222222222199</v>
+      </c>
+      <c r="E6">
+        <v>46.622222222222199</v>
+      </c>
+      <c r="F6">
+        <v>8332.5181539625301</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>36220</v>
+      </c>
+      <c r="M6">
+        <v>236.74600000000001</v>
+      </c>
+      <c r="N6">
+        <v>50.079000000000001</v>
+      </c>
+      <c r="O6">
+        <v>63.213999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>49984.19</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>43352.224880078698</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>0.86731874378835982</v>
+      </c>
+      <c r="U6">
+        <v>236.74600000000001</v>
+      </c>
+      <c r="V6" s="1">
+        <f>VLOOKUP(Q6,A5:F213, 5)</f>
+        <v>236.74603174603101</v>
+      </c>
+      <c r="W6">
+        <v>50.079000000000001</v>
+      </c>
+      <c r="X6" s="1">
+        <f>VLOOKUP(Q6,$A:$D,4)</f>
+        <v>50.079365079364997</v>
+      </c>
+      <c r="Y6">
+        <v>63.213999999999999</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>VLOOKUP(Q6,$A:$C,3,FALSE)</f>
+        <v>63.213538708354001</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <v>36220</v>
+      </c>
+      <c r="AD6">
+        <v>236.74600000000001</v>
+      </c>
+      <c r="AE6">
+        <v>50.079000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>63.213999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8.3970699612546003E-3</v>
+      </c>
+      <c r="C7">
+        <v>24.978210517197098</v>
+      </c>
+      <c r="D7">
+        <v>22.3333333333333</v>
+      </c>
+      <c r="E7">
+        <v>67.499999999999801</v>
+      </c>
+      <c r="F7">
+        <v>23237.562481945399</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>44610.21</v>
+      </c>
+      <c r="M7">
+        <v>291.67899999999997</v>
+      </c>
+      <c r="N7">
+        <v>59.786000000000001</v>
+      </c>
+      <c r="O7">
+        <v>74.739000000000004</v>
+      </c>
+      <c r="Q7">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>61477.22</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>47164.2668811978</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>0.76718281798034782</v>
+      </c>
+      <c r="U7">
+        <v>291.67899999999997</v>
+      </c>
+      <c r="V7" s="1">
+        <f>VLOOKUP(Q7,A6:F214, 5)</f>
+        <v>291.67857142857099</v>
+      </c>
+      <c r="W7">
+        <v>59.786000000000001</v>
+      </c>
+      <c r="X7" s="1">
+        <f>VLOOKUP(Q7,$A:$D,4)</f>
+        <v>59.785714285714199</v>
+      </c>
+      <c r="Y7">
+        <v>74.739000000000004</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>VLOOKUP(Q7,$A:$C,3,FALSE)</f>
+        <v>74.738694059141295</v>
+      </c>
+      <c r="AB7">
+        <v>11</v>
+      </c>
+      <c r="AC7">
+        <v>44610.21</v>
+      </c>
+      <c r="AD7">
+        <v>291.67899999999997</v>
+      </c>
+      <c r="AE7">
+        <v>59.786000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>74.739000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1.2355789738309199E-2</v>
+      </c>
+      <c r="C8">
+        <v>30.850725730245401</v>
+      </c>
+      <c r="D8">
+        <v>26.311111111111099</v>
+      </c>
+      <c r="E8">
+        <v>91.822222222221995</v>
+      </c>
+      <c r="F8">
+        <v>22911.410916753401</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>57777.91</v>
+      </c>
+      <c r="M8">
+        <v>354.92899999999997</v>
+      </c>
+      <c r="N8">
+        <v>66.713999999999999</v>
+      </c>
+      <c r="O8">
+        <v>82.825000000000003</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>78028.34</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>56698.943737696303</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0.72664552055953391</v>
+      </c>
+      <c r="U8">
+        <v>354.92899999999997</v>
+      </c>
+      <c r="V8" s="1">
+        <f>VLOOKUP(Q8,A7:F215, 5)</f>
+        <v>354.92857142857099</v>
+      </c>
+      <c r="W8">
+        <v>66.713999999999999</v>
+      </c>
+      <c r="X8" s="1">
+        <f>VLOOKUP(Q8,$A:$D,4)</f>
+        <v>66.714285714285694</v>
+      </c>
+      <c r="Y8">
+        <v>82.825000000000003</v>
+      </c>
+      <c r="Z8" s="1">
+        <f>VLOOKUP(Q8,$A:$C,3,FALSE)</f>
+        <v>82.825351661971993</v>
+      </c>
+      <c r="AB8">
+        <v>12</v>
+      </c>
+      <c r="AC8">
+        <v>57777.91</v>
+      </c>
+      <c r="AD8">
+        <v>354.92899999999997</v>
+      </c>
+      <c r="AE8">
+        <v>66.713999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>82.825000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.5802275199913601E-2</v>
+      </c>
+      <c r="C9">
+        <v>36.723240943293597</v>
+      </c>
+      <c r="D9">
+        <v>30.288888888888799</v>
+      </c>
+      <c r="E9">
+        <v>120.12222222222201</v>
+      </c>
+      <c r="F9">
+        <v>24958.103191271799</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>116483.4</v>
+      </c>
+      <c r="M9">
+        <v>575</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>99.007999999999996</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+      <c r="R9">
+        <v>143936.85999999999</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>98676.912538837802</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0.68555693474790136</v>
+      </c>
+      <c r="U9">
+        <v>575</v>
+      </c>
+      <c r="V9" s="1">
+        <f>VLOOKUP(Q9,A8:F216, 5)</f>
+        <v>575</v>
+      </c>
+      <c r="W9">
+        <v>80</v>
+      </c>
+      <c r="X9" s="1">
+        <f>VLOOKUP(Q9,$A:$D,4)</f>
+        <v>80</v>
+      </c>
+      <c r="Y9">
+        <v>99.007999999999996</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>VLOOKUP(Q9,$A:$C,3,FALSE)</f>
+        <v>99.007577259762201</v>
+      </c>
+      <c r="AB9">
+        <v>15</v>
+      </c>
+      <c r="AC9">
+        <v>116483.4</v>
+      </c>
+      <c r="AD9">
+        <v>575</v>
+      </c>
+      <c r="AE9">
+        <v>80</v>
+      </c>
+      <c r="AF9">
+        <v>99.007999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.34445837736134E-2</v>
+      </c>
+      <c r="C10">
+        <v>42.595756156341899</v>
+      </c>
+      <c r="D10">
+        <v>34.266666666666602</v>
+      </c>
+      <c r="E10">
+        <v>152.39999999999901</v>
+      </c>
+      <c r="F10">
+        <v>39509.6300975903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.6770065565680701E-2</v>
+      </c>
+      <c r="C11">
+        <v>52.904647432348</v>
+      </c>
+      <c r="D11">
+        <v>42.1730158730158</v>
+      </c>
+      <c r="E11">
+        <v>190.619841269841</v>
+      </c>
+      <c r="F11">
+        <v>39804.8322003949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.9623327683871001E-2</v>
+      </c>
+      <c r="C12">
+        <v>63.213538708354001</v>
+      </c>
+      <c r="D12">
+        <v>50.079365079364997</v>
+      </c>
+      <c r="E12">
+        <v>236.74603174603101</v>
+      </c>
+      <c r="F12">
+        <v>43352.224880078698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2.2841101866399201E-2</v>
+      </c>
+      <c r="C13">
+        <v>74.738694059141295</v>
+      </c>
+      <c r="D13">
+        <v>59.785714285714199</v>
+      </c>
+      <c r="E13">
+        <v>291.67857142857099</v>
+      </c>
+      <c r="F13">
+        <v>47164.2668811978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2.46076822062277E-2</v>
+      </c>
+      <c r="C14">
+        <v>82.825351661971993</v>
+      </c>
+      <c r="D14">
+        <v>66.714285714285694</v>
+      </c>
+      <c r="E14">
+        <v>354.92857142857099</v>
+      </c>
+      <c r="F14">
+        <v>56698.943737696303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2.5826838481250301E-2</v>
+      </c>
+      <c r="C15">
+        <v>88.219426861235405</v>
+      </c>
+      <c r="D15">
+        <v>71.142857142857096</v>
+      </c>
+      <c r="E15">
+        <v>423.857142857143</v>
+      </c>
+      <c r="F15">
+        <v>69625.9891006119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2.69729871464102E-2</v>
+      </c>
+      <c r="C16">
+        <v>93.613502060498803</v>
+      </c>
+      <c r="D16">
+        <v>75.571428571428498</v>
+      </c>
+      <c r="E16">
+        <v>497.21428571428498</v>
+      </c>
+      <c r="F16">
+        <v>83612.438884119605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2.8052495503475099E-2</v>
+      </c>
+      <c r="C17">
+        <v>99.007577259762201</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>575</v>
+      </c>
+      <c r="F17">
+        <v>98676.912538837802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61167B8D-4CA6-4DD5-806F-406674F20A9B}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -20514,332 +24173,4 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF4141F-5FA0-4188-9E8D-2B208108AF08}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>30.8</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>0.03</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.03</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.03</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0.03</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>54.4444444444444</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>68.3333333333333</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>0.03</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>0.03</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F0C07D-0D67-491E-9753-746AA1723830}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0.03</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>0.03</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12.857142857142801</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0.03</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0.03</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0.03</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0.03</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>58.8888888888888</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>61.6666666666666</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.03</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>70</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>0.03</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/source/test/river/cross_section.xlsx
+++ b/source/test/river/cross_section.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mel.Meng\Documents\GitHub\SewerAnalysis\source\test\river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4370C050-69CD-4564-9444-C29E2D79D0F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27A3379-0AA3-470A-984A-A19D5D50606F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,23 @@
     <sheet name="irregular" sheetId="4" r:id="rId3"/>
     <sheet name="irregular_single" sheetId="7" r:id="rId4"/>
     <sheet name="irregular_multiple" sheetId="11" r:id="rId5"/>
-    <sheet name="irregular_multiple_panels" sheetId="15" r:id="rId6"/>
-    <sheet name="irregular_multiple_panels_res" sheetId="17" r:id="rId7"/>
-    <sheet name="irregular_multiple_panels_r (2)" sheetId="19" r:id="rId8"/>
-    <sheet name="irregular_multiple_panels_check" sheetId="16" r:id="rId9"/>
-    <sheet name="irregular_multiple_6" sheetId="12" r:id="rId10"/>
-    <sheet name="irregular_multiple_8" sheetId="18" r:id="rId11"/>
-    <sheet name="irregular_multiple_10" sheetId="13" r:id="rId12"/>
-    <sheet name="irregular_multiple_13" sheetId="14" r:id="rId13"/>
-    <sheet name="irregular_single_25" sheetId="8" r:id="rId14"/>
-    <sheet name="irregular_single_10" sheetId="9" r:id="rId15"/>
-    <sheet name="irregular_single_12" sheetId="10" r:id="rId16"/>
-    <sheet name="triangle" sheetId="5" r:id="rId17"/>
-    <sheet name="trapzoid" sheetId="3" r:id="rId18"/>
-    <sheet name="irregular2" sheetId="6" r:id="rId19"/>
+    <sheet name="xs_single_n" sheetId="20" r:id="rId6"/>
+    <sheet name="xs_single_n_check" sheetId="21" r:id="rId7"/>
+    <sheet name="irregular_multiple_panels" sheetId="15" r:id="rId8"/>
+    <sheet name="irregular_multiple_panels_cv" sheetId="22" r:id="rId9"/>
+    <sheet name="irregular_multiple_panels_res" sheetId="17" r:id="rId10"/>
+    <sheet name="irregular_multiple_panels_r (2)" sheetId="19" r:id="rId11"/>
+    <sheet name="irregular_multiple_panels_check" sheetId="16" r:id="rId12"/>
+    <sheet name="irregular_multiple_6" sheetId="12" r:id="rId13"/>
+    <sheet name="irregular_multiple_8" sheetId="18" r:id="rId14"/>
+    <sheet name="irregular_multiple_10" sheetId="13" r:id="rId15"/>
+    <sheet name="irregular_multiple_13" sheetId="14" r:id="rId16"/>
+    <sheet name="irregular_single_25" sheetId="8" r:id="rId17"/>
+    <sheet name="irregular_single_10" sheetId="9" r:id="rId18"/>
+    <sheet name="irregular_single_12" sheetId="10" r:id="rId19"/>
+    <sheet name="triangle" sheetId="5" r:id="rId20"/>
+    <sheet name="trapzoid" sheetId="3" r:id="rId21"/>
+    <sheet name="irregular2" sheetId="6" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="29">
   <si>
     <t>station</t>
   </si>
@@ -134,12 +137,15 @@
   <si>
     <t>n_average</t>
   </si>
+  <si>
+    <t>no_panel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,25 +153,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,16 +171,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,7 +596,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_multiple_10!$B$1</c:f>
+              <c:f>irregular_multiple_6!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -640,66 +631,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_multiple_10!$A$2:$A$9</c:f>
+              <c:f>irregular_multiple_6!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.857142857142801</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>54.4444444444444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>68.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.8888888888888</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_multiple_10!$B$2:$B$9</c:f>
+              <c:f>irregular_multiple_6!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,7 +698,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D8A7-47A4-B0FA-257C263ECE41}"/>
+              <c16:uniqueId val="{00000000-7CCF-4943-9C47-F27FC8DAFDA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -953,7 +944,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_multiple_13!$B$1</c:f>
+              <c:f>irregular_multiple_8!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -988,66 +979,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_multiple_13!$A$2:$A$9</c:f>
+              <c:f>irregular_multiple_8!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.1428571428571</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>56.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_multiple_13!$B$2:$B$9</c:f>
+              <c:f>irregular_multiple_8!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,7 +1046,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B363-4CAB-94B0-BD6F52451DC2}"/>
+              <c16:uniqueId val="{00000000-92EB-4EF7-8281-EDC3863BC9B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1301,7 +1292,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_single_25!$B$1</c:f>
+              <c:f>irregular_multiple_10!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1336,66 +1327,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_single_25!$A$2:$A$9</c:f>
+              <c:f>irregular_multiple_10!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12.857142857142801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>58.8888888888888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_single_25!$B$2:$B$9</c:f>
+              <c:f>irregular_multiple_10!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,7 +1394,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B498-4E68-9B89-710C4B5DD255}"/>
+              <c16:uniqueId val="{00000000-D8A7-47A4-B0FA-257C263ECE41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1649,6 +1640,702 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>irregular_multiple_13!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>irregular_multiple_13!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.1428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irregular_multiple_13!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B363-4CAB-94B0-BD6F52451DC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="427128688"/>
+        <c:axId val="427119832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="427128688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427119832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="427119832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427128688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irregular_single_25!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>irregular_single_25!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irregular_single_25!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B498-4E68-9B89-710C4B5DD255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="427128688"/>
+        <c:axId val="427119832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="427128688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427119832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="427119832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427128688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>irregular_single_10!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1924,7 +2611,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3347,7 +4034,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_multiple_panels!$D$1</c:f>
+              <c:f>xs_single_n!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3382,7 +4069,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_multiple_panels!$A$2:$A$11</c:f>
+              <c:f>xs_single_n!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3421,7 +4108,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_multiple_panels!$D$2:$D$11</c:f>
+              <c:f>xs_single_n!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3461,7 +4148,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-167B-4E3D-9E03-22179F87BBAB}"/>
+              <c16:uniqueId val="{00000000-6EF8-4E21-9DF3-0AEE6D3170EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3666,6 +4353,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3677,11 +4394,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'irregular_multiple_panels_r (2)'!$A$1</c:f>
+              <c:f>irregular_multiple_panels!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>d</c:v>
+                  <c:v>Z</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3712,110 +4429,77 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'irregular_multiple_panels_r (2)'!$F$2:$F$17</c:f>
+              <c:f>irregular_multiple_panels!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.28727546453001</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1398.73701123041</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4178.1654924609902</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8332.5181539625301</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23237.562481945399</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22911.410916753401</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24958.103191271799</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39509.6300975903</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39804.8322003949</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43352.224880078698</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47164.2668811978</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56698.943737696303</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>69625.9891006119</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>83612.438884119605</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>98676.912538837802</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'irregular_multiple_panels_r (2)'!$A$2:$A$17</c:f>
+              <c:f>irregular_multiple_panels!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -3824,110 +4508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EAAD-45E3-B81D-AA3BF7F9CB2A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>icm</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'irregular_multiple_panels_r (2)'!$L$2:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1394.91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12102.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25658.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36220</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44610.21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57777.91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>116483.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'irregular_multiple_panels_r (2)'!$K$2:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EAAD-45E3-B81D-AA3BF7F9CB2A}"/>
+              <c16:uniqueId val="{00000000-167B-4E3D-9E03-22179F87BBAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4132,37 +4713,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4173,11 +4724,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_multiple_panels_check!$D$1</c:f>
+              <c:f>irregular_multiple_panels_cv!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Z</c:v>
+                  <c:v>k</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4208,89 +4759,65 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_multiple_panels_check!$A$2:$A$13</c:f>
+              <c:f>irregular_multiple_panels_cv!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>1394.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>12102.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>32064.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>49984.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>61477.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>78028.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80</c:v>
+                  <c:v>143936.85999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_multiple_panels_check!$D$2:$D$13</c:f>
+              <c:f>irregular_multiple_panels_cv!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -4299,7 +4826,221 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A34-48ED-93F2-394507845ACF}"/>
+              <c16:uniqueId val="{00000000-CDC9-402E-88CE-D4FE6F99D15B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>irregular_multiple_panels_cv!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no_panel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>irregular_multiple_panels_cv!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1394.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12102.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25658.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44610.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57777.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116483.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irregular_multiple_panels_cv!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDC9-402E-88CE-D4FE6F99D15B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>irregular_multiple_panels_cv!$P$2:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1398.73701123041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13937.6741349944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42716.217705659801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71159.494660943194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88723.272120142996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111729.366348314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197113.08191056401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>irregular_multiple_panels_cv!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CDC9-402E-88CE-D4FE6F99D15B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4311,30 +5052,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427128688"/>
-        <c:axId val="427119832"/>
+        <c:axId val="640592208"/>
+        <c:axId val="640584008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="427128688"/>
+        <c:axId val="640592208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4372,31 +5099,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427119832"/>
+        <c:crossAx val="640584008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427119832"/>
+        <c:axId val="640584008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4434,7 +5147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427128688"/>
+        <c:crossAx val="640592208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4446,6 +5159,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4504,36 +5248,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4545,11 +5259,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_multiple_6!$B$1</c:f>
+              <c:f>'irregular_multiple_panels_r (2)'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Z</c:v>
+                  <c:v>d</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4580,66 +5294,63 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_multiple_6!$A$2:$A$9</c:f>
+              <c:f>'irregular_multiple_panels_r (2)'!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>30.8</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>1398.73701123041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>13937.6741349943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>23594.056527355799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.4444444444444</c:v>
+                  <c:v>32964.1521160743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.3333333333333</c:v>
+                  <c:v>39851.633285694101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>50435.572895014797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71</c:v>
+                  <c:v>95774.8659892695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_multiple_6!$B$2:$B$9</c:f>
+              <c:f>'irregular_multiple_panels_r (2)'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4647,7 +5358,110 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CCF-4943-9C47-F27FC8DAFDA2}"/>
+              <c16:uniqueId val="{00000000-EAAD-45E3-B81D-AA3BF7F9CB2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>icm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'irregular_multiple_panels_r (2)'!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1394.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12102.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25658.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44610.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57777.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116483.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'irregular_multiple_panels_r (2)'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAAD-45E3-B81D-AA3BF7F9CB2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4893,7 +5707,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>irregular_multiple_8!$B$1</c:f>
+              <c:f>irregular_multiple_panels_check!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4928,66 +5742,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>irregular_multiple_8!$A$2:$A$9</c:f>
+              <c:f>irregular_multiple_panels_check!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>56.6666666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65</c:v>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>irregular_multiple_8!$B$2:$B$9</c:f>
+              <c:f>irregular_multiple_panels_check!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4995,7 +5833,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-92EB-4EF7-8281-EDC3863BC9B3}"/>
+              <c16:uniqueId val="{00000000-3A34-48ED-93F2-394507845ACF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5426,6 +6264,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8842,6 +9760,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -13031,7 +14981,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE5215F-BFE4-45AC-8A6E-4B3EA9E7931B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292518E9-F158-47B0-AD7F-BAA0B5852621}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13074,6 +15024,92 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146FEE2-174E-410C-892F-85C0FB2D4A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE5215F-BFE4-45AC-8A6E-4B3EA9E7931B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A423004C-FC53-4B7F-B0BC-E9013843DFB2}"/>
             </a:ext>
           </a:extLst>
@@ -13097,7 +15133,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13140,7 +15176,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13183,7 +15219,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13373,7 +15409,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D423E4-0A1F-40F8-B19D-1E88A14ED9D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B288B254-9FAB-48C7-B57C-E8553FB5A6CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13401,15 +15437,99 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D423E4-0A1F-40F8-B19D-1E88A14ED9D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFF3238-3FAE-4F2B-A2E7-F7ABDCE40F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13439,7 +15559,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13460,92 +15580,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BC0251-FF60-4BDC-87F4-6D89E1B7026D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292518E9-F158-47B0-AD7F-BAA0B5852621}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146FEE2-174E-410C-892F-85C0FB2D4A6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13972,6 +16006,927 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260D54F9-AD62-461E-BB09-54507FEA3760}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1394.91</v>
+      </c>
+      <c r="C3">
+        <v>13.6</v>
+      </c>
+      <c r="D3">
+        <v>13.6</v>
+      </c>
+      <c r="E3">
+        <v>14.316000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>12102.74</v>
+      </c>
+      <c r="C4">
+        <v>67.5</v>
+      </c>
+      <c r="D4">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="E4">
+        <v>24.978000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>25658.87</v>
+      </c>
+      <c r="C5">
+        <v>152.4</v>
+      </c>
+      <c r="D5">
+        <v>34.267000000000003</v>
+      </c>
+      <c r="E5">
+        <v>42.595999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>36220</v>
+      </c>
+      <c r="C6">
+        <v>236.74600000000001</v>
+      </c>
+      <c r="D6">
+        <v>50.079000000000001</v>
+      </c>
+      <c r="E6">
+        <v>63.213999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>44610.21</v>
+      </c>
+      <c r="C7">
+        <v>291.67899999999997</v>
+      </c>
+      <c r="D7">
+        <v>59.786000000000001</v>
+      </c>
+      <c r="E7">
+        <v>74.739000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>57777.91</v>
+      </c>
+      <c r="C8">
+        <v>354.92899999999997</v>
+      </c>
+      <c r="D8">
+        <v>66.713999999999999</v>
+      </c>
+      <c r="E8">
+        <v>82.825000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>116483.4</v>
+      </c>
+      <c r="C9">
+        <v>575</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>99.007999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C9576-E146-4E1B-9BB9-4B45A620EFE7}">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="e">
+        <f>L2/F2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.39999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>14.3162910835803</v>
+      </c>
+      <c r="D3">
+        <v>13.6</v>
+      </c>
+      <c r="E3">
+        <v>13.5999999999999</v>
+      </c>
+      <c r="F3">
+        <v>1398.73701123041</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1394.91</v>
+      </c>
+      <c r="M3">
+        <v>13.6</v>
+      </c>
+      <c r="N3">
+        <v>13.6</v>
+      </c>
+      <c r="O3">
+        <v>14.316000000000001</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P9" si="0">L3/F3</f>
+        <v>0.99726395226573472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C4">
+        <v>24.978210517197098</v>
+      </c>
+      <c r="D4">
+        <v>22.3333333333333</v>
+      </c>
+      <c r="E4">
+        <v>67.499999999999801</v>
+      </c>
+      <c r="F4">
+        <v>13937.6741349943</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>12102.74</v>
+      </c>
+      <c r="M4">
+        <v>67.5</v>
+      </c>
+      <c r="N4">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="O4">
+        <v>24.978000000000002</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0.86834717778433335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2.2513743285121401E-2</v>
+      </c>
+      <c r="C5">
+        <v>42.595756156341899</v>
+      </c>
+      <c r="D5">
+        <v>34.266666666666602</v>
+      </c>
+      <c r="E5">
+        <v>152.39999999999901</v>
+      </c>
+      <c r="F5">
+        <v>23594.056527355799</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>25658.87</v>
+      </c>
+      <c r="M5">
+        <v>152.4</v>
+      </c>
+      <c r="N5">
+        <v>34.267000000000003</v>
+      </c>
+      <c r="O5">
+        <v>42.595999999999997</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1.0875141360388867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2.5807274267243E-2</v>
+      </c>
+      <c r="C6">
+        <v>63.213538708354001</v>
+      </c>
+      <c r="D6">
+        <v>50.079365079364997</v>
+      </c>
+      <c r="E6">
+        <v>236.74603174603101</v>
+      </c>
+      <c r="F6">
+        <v>32964.1521160743</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>36220</v>
+      </c>
+      <c r="M6">
+        <v>236.74600000000001</v>
+      </c>
+      <c r="N6">
+        <v>50.079000000000001</v>
+      </c>
+      <c r="O6">
+        <v>63.213999999999999</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1.0987693501856537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2.7032363179809699E-2</v>
+      </c>
+      <c r="C7">
+        <v>74.738694059141295</v>
+      </c>
+      <c r="D7">
+        <v>59.785714285714199</v>
+      </c>
+      <c r="E7">
+        <v>291.67857142857099</v>
+      </c>
+      <c r="F7">
+        <v>39851.633285694101</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>44610.21</v>
+      </c>
+      <c r="M7">
+        <v>291.67899999999997</v>
+      </c>
+      <c r="N7">
+        <v>59.786000000000001</v>
+      </c>
+      <c r="O7">
+        <v>74.739000000000004</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1.1194073196496599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2.7663601478866599E-2</v>
+      </c>
+      <c r="C8">
+        <v>82.825351661971993</v>
+      </c>
+      <c r="D8">
+        <v>66.714285714285694</v>
+      </c>
+      <c r="E8">
+        <v>354.92857142857099</v>
+      </c>
+      <c r="F8">
+        <v>50435.572895014797</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>57777.91</v>
+      </c>
+      <c r="M8">
+        <v>354.92899999999997</v>
+      </c>
+      <c r="N8">
+        <v>66.713999999999999</v>
+      </c>
+      <c r="O8">
+        <v>82.825000000000003</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1.1455785407705945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2.89025060667032E-2</v>
+      </c>
+      <c r="C9">
+        <v>99.007577259762201</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>575</v>
+      </c>
+      <c r="F9">
+        <v>95774.8659892695</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>116483.4</v>
+      </c>
+      <c r="M9">
+        <v>575</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>99.007999999999996</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1.2162209656659886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61167B8D-4CA6-4DD5-806F-406674F20A9B}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0.03</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0.03</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0.03</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>0.05</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF4141F-5FA0-4188-9E8D-2B208108AF08}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -14114,7 +17069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C659EC54-B63C-4FF0-8BFE-BA6CDB22A7F4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -14285,7 +17240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F0C07D-0D67-491E-9753-746AA1723830}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -14470,11 +17425,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E6EED1-978D-4EDA-86BE-34513B2A0CB5}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -14669,7 +17624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D64400B-D167-400A-96C4-458B8EB8AEA2}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -14812,7 +17767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CAFE74-973E-4E55-A0B3-F52511FBC797}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -14913,7 +17868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DBDDB1-E242-4FD3-9920-B7121E68AB18}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -15025,275 +17980,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1036A-B0F5-4801-9AC0-59BA6E1B5C44}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>0.03</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0.03</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0.03</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A4CD2-C14E-4AD7-92E2-B669F68B9BBD}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0.03</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.03</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.03</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0.03</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D19116E-26EA-48E8-8777-DBACB25B5ECD}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>0.03</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0.03</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0.03</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0.03</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0.03</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>0.03</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -22038,6 +24724,275 @@
         <v>479.03</v>
       </c>
       <c r="D481" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1036A-B0F5-4801-9AC0-59BA6E1B5C44}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A4CD2-C14E-4AD7-92E2-B669F68B9BBD}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.03</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D19116E-26EA-48E8-8777-DBACB25B5ECD}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.03</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0.03</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -22448,11 +25403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1167B2-0754-40F2-918F-4E88DA671ECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0ABDFE-C818-4F05-90A7-3F4C953621CF}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F11"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22551,7 +25506,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>1.4E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -22571,7 +25526,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>1.4E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22591,7 +25546,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.4E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -22611,7 +25566,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>1.4E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -22631,7 +25586,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -22651,7 +25606,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22671,7 +25626,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22685,21 +25640,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260D54F9-AD62-461E-BB09-54507FEA3760}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E20FF0-DFBA-4204-BAC0-4D113EA93C28}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
@@ -22710,8 +25665,11 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -22728,7 +25686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22744,13 +25702,16 @@
       <c r="E3">
         <v>14.316000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1398.73701123041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>12102.74</v>
+        <v>13899.5</v>
       </c>
       <c r="C4">
         <v>67.5</v>
@@ -22761,13 +25722,16 @@
       <c r="E4">
         <v>24.978000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>13937.6741349943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>25658.87</v>
+        <v>37838.25</v>
       </c>
       <c r="C5">
         <v>152.4</v>
@@ -22778,13 +25742,16 @@
       <c r="E5">
         <v>42.595999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>37942.1808365381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>36220</v>
+        <v>60598.9</v>
       </c>
       <c r="C6">
         <v>236.74600000000001</v>
@@ -22795,13 +25762,16 @@
       <c r="E6">
         <v>63.213999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>60765.351046189397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>44610.21</v>
+        <v>76738.070000000007</v>
       </c>
       <c r="C7">
         <v>291.67899999999997</v>
@@ -22812,13 +25782,16 @@
       <c r="E7">
         <v>74.739000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>76948.844591962901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>57777.91</v>
+        <v>99386.27</v>
       </c>
       <c r="C8">
         <v>354.92899999999997</v>
@@ -22829,13 +25802,16 @@
       <c r="E8">
         <v>82.825000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>99659.256351858596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>116483.4</v>
+        <v>197182.22</v>
       </c>
       <c r="C9">
         <v>575</v>
@@ -22845,6 +25821,9 @@
       </c>
       <c r="E9">
         <v>99.007999999999996</v>
+      </c>
+      <c r="F9">
+        <v>197723.83180661101</v>
       </c>
     </row>
   </sheetData>
@@ -22854,924 +25833,233 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C9576-E146-4E1B-9BB9-4B45A620EFE7}">
-  <dimension ref="A1:AF17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1167B2-0754-40F2-918F-4E88DA671ECD}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O9"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0.03</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0.03</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="L2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0.03</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="N2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="R2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="S2">
-        <f>VLOOKUP(Q2,$A:$F,6,FALSE)</f>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="T2" t="e">
-        <f>S2/R2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U2">
+      <c r="E7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="V2" s="1">
-        <f>VLOOKUP(Q2,A1:F209, 5)</f>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="X2" s="1">
-        <f>VLOOKUP(Q2,$A:$D,4)</f>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>0.05</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="Z2" s="1">
-        <f>VLOOKUP(Q2,$A:$C,3,FALSE)</f>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="AB2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="AC2">
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+      <c r="F11">
         <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C3">
-        <v>7.15814554179018</v>
-      </c>
-      <c r="D3">
-        <v>6.7999999999999901</v>
-      </c>
-      <c r="E3">
-        <v>3.3999999999999901</v>
-      </c>
-      <c r="F3">
-        <v>220.28727546453001</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1394.91</v>
-      </c>
-      <c r="M3">
-        <v>13.6</v>
-      </c>
-      <c r="N3">
-        <v>13.6</v>
-      </c>
-      <c r="O3">
-        <v>14.316000000000001</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1394.91</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S9" si="0">VLOOKUP(Q3,$A:$F,6,FALSE)</f>
-        <v>1398.73701123041</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T9" si="1">S3/R3</f>
-        <v>1.002743554229599</v>
-      </c>
-      <c r="U3">
-        <v>13.6</v>
-      </c>
-      <c r="V3" s="1">
-        <f>VLOOKUP(Q3,A2:F210, 5)</f>
-        <v>13.5999999999999</v>
-      </c>
-      <c r="W3">
-        <v>13.6</v>
-      </c>
-      <c r="X3" s="1">
-        <f>VLOOKUP(Q3,$A:$D,4)</f>
-        <v>13.6</v>
-      </c>
-      <c r="Y3">
-        <v>14.316000000000001</v>
-      </c>
-      <c r="Z3" s="1">
-        <f>VLOOKUP(Q3,$A:$C,3,FALSE)</f>
-        <v>14.3162910835803</v>
-      </c>
-      <c r="AB3">
-        <v>2</v>
-      </c>
-      <c r="AC3">
-        <v>1394.91</v>
-      </c>
-      <c r="AD3">
-        <v>13.6</v>
-      </c>
-      <c r="AE3">
-        <v>13.6</v>
-      </c>
-      <c r="AF3">
-        <v>14.316000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1.39999999999999E-2</v>
-      </c>
-      <c r="C4">
-        <v>14.3162910835803</v>
-      </c>
-      <c r="D4">
-        <v>13.6</v>
-      </c>
-      <c r="E4">
-        <v>13.5999999999999</v>
-      </c>
-      <c r="F4">
-        <v>1398.73701123041</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>12102.74</v>
-      </c>
-      <c r="M4">
-        <v>67.5</v>
-      </c>
-      <c r="N4">
-        <v>22.332999999999998</v>
-      </c>
-      <c r="O4">
-        <v>24.978000000000002</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>12102.74</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>23237.562481945399</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
-        <v>1.9200249267476124</v>
-      </c>
-      <c r="U4">
-        <v>67.5</v>
-      </c>
-      <c r="V4" s="1">
-        <f>VLOOKUP(Q4,A3:F211, 5)</f>
-        <v>67.499999999999801</v>
-      </c>
-      <c r="W4">
-        <v>22.332999999999998</v>
-      </c>
-      <c r="X4" s="1">
-        <f>VLOOKUP(Q4,$A:$D,4)</f>
-        <v>22.3333333333333</v>
-      </c>
-      <c r="Y4">
-        <v>24.978000000000002</v>
-      </c>
-      <c r="Z4" s="1">
-        <f>VLOOKUP(Q4,$A:$C,3,FALSE)</f>
-        <v>24.978210517197098</v>
-      </c>
-      <c r="AB4">
-        <v>5</v>
-      </c>
-      <c r="AC4">
-        <v>12102.74</v>
-      </c>
-      <c r="AD4">
-        <v>67.5</v>
-      </c>
-      <c r="AE4">
-        <v>22.332999999999998</v>
-      </c>
-      <c r="AF4">
-        <v>24.978000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C5">
-        <v>17.870264228119201</v>
-      </c>
-      <c r="D5">
-        <v>16.511111111111099</v>
-      </c>
-      <c r="E5">
-        <v>28.655555555555502</v>
-      </c>
-      <c r="F5">
-        <v>4178.1654924609902</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>25658.87</v>
-      </c>
-      <c r="M5">
-        <v>152.4</v>
-      </c>
-      <c r="N5">
-        <v>34.267000000000003</v>
-      </c>
-      <c r="O5">
-        <v>42.595999999999997</v>
-      </c>
-      <c r="Q5">
-        <v>8</v>
-      </c>
-      <c r="R5">
-        <v>32064.42</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>39509.6300975903</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="1"/>
-        <v>1.2321953772309089</v>
-      </c>
-      <c r="U5">
-        <v>152.4</v>
-      </c>
-      <c r="V5" s="1">
-        <f>VLOOKUP(Q5,A4:F212, 5)</f>
-        <v>152.39999999999901</v>
-      </c>
-      <c r="W5">
-        <v>34.267000000000003</v>
-      </c>
-      <c r="X5" s="1">
-        <f>VLOOKUP(Q5,$A:$D,4)</f>
-        <v>34.266666666666602</v>
-      </c>
-      <c r="Y5">
-        <v>42.595999999999997</v>
-      </c>
-      <c r="Z5" s="1">
-        <f>VLOOKUP(Q5,$A:$C,3,FALSE)</f>
-        <v>42.595756156341899</v>
-      </c>
-      <c r="AB5">
-        <v>8</v>
-      </c>
-      <c r="AC5">
-        <v>25658.87</v>
-      </c>
-      <c r="AD5">
-        <v>152.4</v>
-      </c>
-      <c r="AE5">
-        <v>34.267000000000003</v>
-      </c>
-      <c r="AF5">
-        <v>42.595999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C6">
-        <v>21.424237372658201</v>
-      </c>
-      <c r="D6">
-        <v>19.422222222222199</v>
-      </c>
-      <c r="E6">
-        <v>46.622222222222199</v>
-      </c>
-      <c r="F6">
-        <v>8332.5181539625301</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>36220</v>
-      </c>
-      <c r="M6">
-        <v>236.74600000000001</v>
-      </c>
-      <c r="N6">
-        <v>50.079000000000001</v>
-      </c>
-      <c r="O6">
-        <v>63.213999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6">
-        <v>49984.19</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>43352.224880078698</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="1"/>
-        <v>0.86731874378835982</v>
-      </c>
-      <c r="U6">
-        <v>236.74600000000001</v>
-      </c>
-      <c r="V6" s="1">
-        <f>VLOOKUP(Q6,A5:F213, 5)</f>
-        <v>236.74603174603101</v>
-      </c>
-      <c r="W6">
-        <v>50.079000000000001</v>
-      </c>
-      <c r="X6" s="1">
-        <f>VLOOKUP(Q6,$A:$D,4)</f>
-        <v>50.079365079364997</v>
-      </c>
-      <c r="Y6">
-        <v>63.213999999999999</v>
-      </c>
-      <c r="Z6" s="1">
-        <f>VLOOKUP(Q6,$A:$C,3,FALSE)</f>
-        <v>63.213538708354001</v>
-      </c>
-      <c r="AB6">
-        <v>10</v>
-      </c>
-      <c r="AC6">
-        <v>36220</v>
-      </c>
-      <c r="AD6">
-        <v>236.74600000000001</v>
-      </c>
-      <c r="AE6">
-        <v>50.079000000000001</v>
-      </c>
-      <c r="AF6">
-        <v>63.213999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>8.3970699612546003E-3</v>
-      </c>
-      <c r="C7">
-        <v>24.978210517197098</v>
-      </c>
-      <c r="D7">
-        <v>22.3333333333333</v>
-      </c>
-      <c r="E7">
-        <v>67.499999999999801</v>
-      </c>
-      <c r="F7">
-        <v>23237.562481945399</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>44610.21</v>
-      </c>
-      <c r="M7">
-        <v>291.67899999999997</v>
-      </c>
-      <c r="N7">
-        <v>59.786000000000001</v>
-      </c>
-      <c r="O7">
-        <v>74.739000000000004</v>
-      </c>
-      <c r="Q7">
-        <v>11</v>
-      </c>
-      <c r="R7">
-        <v>61477.22</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>47164.2668811978</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>0.76718281798034782</v>
-      </c>
-      <c r="U7">
-        <v>291.67899999999997</v>
-      </c>
-      <c r="V7" s="1">
-        <f>VLOOKUP(Q7,A6:F214, 5)</f>
-        <v>291.67857142857099</v>
-      </c>
-      <c r="W7">
-        <v>59.786000000000001</v>
-      </c>
-      <c r="X7" s="1">
-        <f>VLOOKUP(Q7,$A:$D,4)</f>
-        <v>59.785714285714199</v>
-      </c>
-      <c r="Y7">
-        <v>74.739000000000004</v>
-      </c>
-      <c r="Z7" s="1">
-        <f>VLOOKUP(Q7,$A:$C,3,FALSE)</f>
-        <v>74.738694059141295</v>
-      </c>
-      <c r="AB7">
-        <v>11</v>
-      </c>
-      <c r="AC7">
-        <v>44610.21</v>
-      </c>
-      <c r="AD7">
-        <v>291.67899999999997</v>
-      </c>
-      <c r="AE7">
-        <v>59.786000000000001</v>
-      </c>
-      <c r="AF7">
-        <v>74.739000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1.2355789738309199E-2</v>
-      </c>
-      <c r="C8">
-        <v>30.850725730245401</v>
-      </c>
-      <c r="D8">
-        <v>26.311111111111099</v>
-      </c>
-      <c r="E8">
-        <v>91.822222222221995</v>
-      </c>
-      <c r="F8">
-        <v>22911.410916753401</v>
-      </c>
-      <c r="K8">
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <v>57777.91</v>
-      </c>
-      <c r="M8">
-        <v>354.92899999999997</v>
-      </c>
-      <c r="N8">
-        <v>66.713999999999999</v>
-      </c>
-      <c r="O8">
-        <v>82.825000000000003</v>
-      </c>
-      <c r="Q8">
-        <v>12</v>
-      </c>
-      <c r="R8">
-        <v>78028.34</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>56698.943737696303</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>0.72664552055953391</v>
-      </c>
-      <c r="U8">
-        <v>354.92899999999997</v>
-      </c>
-      <c r="V8" s="1">
-        <f>VLOOKUP(Q8,A7:F215, 5)</f>
-        <v>354.92857142857099</v>
-      </c>
-      <c r="W8">
-        <v>66.713999999999999</v>
-      </c>
-      <c r="X8" s="1">
-        <f>VLOOKUP(Q8,$A:$D,4)</f>
-        <v>66.714285714285694</v>
-      </c>
-      <c r="Y8">
-        <v>82.825000000000003</v>
-      </c>
-      <c r="Z8" s="1">
-        <f>VLOOKUP(Q8,$A:$C,3,FALSE)</f>
-        <v>82.825351661971993</v>
-      </c>
-      <c r="AB8">
-        <v>12</v>
-      </c>
-      <c r="AC8">
-        <v>57777.91</v>
-      </c>
-      <c r="AD8">
-        <v>354.92899999999997</v>
-      </c>
-      <c r="AE8">
-        <v>66.713999999999999</v>
-      </c>
-      <c r="AF8">
-        <v>82.825000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1.5802275199913601E-2</v>
-      </c>
-      <c r="C9">
-        <v>36.723240943293597</v>
-      </c>
-      <c r="D9">
-        <v>30.288888888888799</v>
-      </c>
-      <c r="E9">
-        <v>120.12222222222201</v>
-      </c>
-      <c r="F9">
-        <v>24958.103191271799</v>
-      </c>
-      <c r="K9">
-        <v>15</v>
-      </c>
-      <c r="L9">
-        <v>116483.4</v>
-      </c>
-      <c r="M9">
-        <v>575</v>
-      </c>
-      <c r="N9">
-        <v>80</v>
-      </c>
-      <c r="O9">
-        <v>99.007999999999996</v>
-      </c>
-      <c r="Q9">
-        <v>15</v>
-      </c>
-      <c r="R9">
-        <v>143936.85999999999</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>98676.912538837802</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="1"/>
-        <v>0.68555693474790136</v>
-      </c>
-      <c r="U9">
-        <v>575</v>
-      </c>
-      <c r="V9" s="1">
-        <f>VLOOKUP(Q9,A8:F216, 5)</f>
-        <v>575</v>
-      </c>
-      <c r="W9">
-        <v>80</v>
-      </c>
-      <c r="X9" s="1">
-        <f>VLOOKUP(Q9,$A:$D,4)</f>
-        <v>80</v>
-      </c>
-      <c r="Y9">
-        <v>99.007999999999996</v>
-      </c>
-      <c r="Z9" s="1">
-        <f>VLOOKUP(Q9,$A:$C,3,FALSE)</f>
-        <v>99.007577259762201</v>
-      </c>
-      <c r="AB9">
-        <v>15</v>
-      </c>
-      <c r="AC9">
-        <v>116483.4</v>
-      </c>
-      <c r="AD9">
-        <v>575</v>
-      </c>
-      <c r="AE9">
-        <v>80</v>
-      </c>
-      <c r="AF9">
-        <v>99.007999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1.34445837736134E-2</v>
-      </c>
-      <c r="C10">
-        <v>42.595756156341899</v>
-      </c>
-      <c r="D10">
-        <v>34.266666666666602</v>
-      </c>
-      <c r="E10">
-        <v>152.39999999999901</v>
-      </c>
-      <c r="F10">
-        <v>39509.6300975903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1.6770065565680701E-2</v>
-      </c>
-      <c r="C11">
-        <v>52.904647432348</v>
-      </c>
-      <c r="D11">
-        <v>42.1730158730158</v>
-      </c>
-      <c r="E11">
-        <v>190.619841269841</v>
-      </c>
-      <c r="F11">
-        <v>39804.8322003949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1.9623327683871001E-2</v>
-      </c>
-      <c r="C12">
-        <v>63.213538708354001</v>
-      </c>
-      <c r="D12">
-        <v>50.079365079364997</v>
-      </c>
-      <c r="E12">
-        <v>236.74603174603101</v>
-      </c>
-      <c r="F12">
-        <v>43352.224880078698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2.2841101866399201E-2</v>
-      </c>
-      <c r="C13">
-        <v>74.738694059141295</v>
-      </c>
-      <c r="D13">
-        <v>59.785714285714199</v>
-      </c>
-      <c r="E13">
-        <v>291.67857142857099</v>
-      </c>
-      <c r="F13">
-        <v>47164.2668811978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2.46076822062277E-2</v>
-      </c>
-      <c r="C14">
-        <v>82.825351661971993</v>
-      </c>
-      <c r="D14">
-        <v>66.714285714285694</v>
-      </c>
-      <c r="E14">
-        <v>354.92857142857099</v>
-      </c>
-      <c r="F14">
-        <v>56698.943737696303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2.5826838481250301E-2</v>
-      </c>
-      <c r="C15">
-        <v>88.219426861235405</v>
-      </c>
-      <c r="D15">
-        <v>71.142857142857096</v>
-      </c>
-      <c r="E15">
-        <v>423.857142857143</v>
-      </c>
-      <c r="F15">
-        <v>69625.9891006119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2.69729871464102E-2</v>
-      </c>
-      <c r="C16">
-        <v>93.613502060498803</v>
-      </c>
-      <c r="D16">
-        <v>75.571428571428498</v>
-      </c>
-      <c r="E16">
-        <v>497.21428571428498</v>
-      </c>
-      <c r="F16">
-        <v>83612.438884119605</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2.8052495503475099E-2</v>
-      </c>
-      <c r="C17">
-        <v>99.007577259762201</v>
-      </c>
-      <c r="D17">
-        <v>80</v>
-      </c>
-      <c r="E17">
-        <v>575</v>
-      </c>
-      <c r="F17">
-        <v>98676.912538837802</v>
       </c>
     </row>
   </sheetData>
@@ -23782,45 +26070,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61167B8D-4CA6-4DD5-806F-406674F20A9B}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A676FC-381A-4A0F-9A28-56B8489CA8B4}">
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -23831,10 +26134,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -23845,327 +26148,331 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1394.91</v>
+      </c>
+      <c r="C3">
+        <v>13.6</v>
+      </c>
+      <c r="D3">
+        <v>13.6</v>
+      </c>
+      <c r="E3">
+        <v>14.316000000000001</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1394.91</v>
+      </c>
+      <c r="H3">
+        <v>13.6</v>
+      </c>
+      <c r="I3">
+        <v>13.6</v>
+      </c>
+      <c r="J3">
+        <v>14.316000000000001</v>
+      </c>
+      <c r="M3">
+        <v>14.3162910835803</v>
+      </c>
+      <c r="N3">
+        <v>13.6</v>
+      </c>
+      <c r="O3">
+        <v>13.5999999999999</v>
+      </c>
+      <c r="P3">
+        <v>1398.73701123041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>12102.74</v>
+      </c>
+      <c r="C4">
+        <v>67.5</v>
+      </c>
+      <c r="D4">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="E4">
+        <v>24.978000000000002</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>12102.74</v>
+      </c>
+      <c r="H4">
+        <v>67.5</v>
+      </c>
+      <c r="I4">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="J4">
+        <v>24.978000000000002</v>
+      </c>
+      <c r="M4">
+        <v>24.978210517197098</v>
+      </c>
+      <c r="N4">
+        <v>22.3333333333333</v>
+      </c>
+      <c r="O4">
+        <v>67.5</v>
+      </c>
+      <c r="P4">
+        <v>13937.6741349944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>32064.42</v>
+      </c>
+      <c r="C5">
+        <v>152.4</v>
+      </c>
+      <c r="D5">
+        <v>34.267000000000003</v>
+      </c>
+      <c r="E5">
+        <v>42.595999999999997</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>25658.87</v>
+      </c>
+      <c r="H5">
+        <v>152.4</v>
+      </c>
+      <c r="I5">
+        <v>34.267000000000003</v>
+      </c>
+      <c r="J5">
+        <v>42.595999999999997</v>
+      </c>
+      <c r="M5">
+        <v>39.536344448186298</v>
+      </c>
+      <c r="N5">
+        <v>33.6666666666666</v>
+      </c>
+      <c r="O5">
+        <v>152.39999999999901</v>
+      </c>
+      <c r="P5">
+        <v>42716.217705659801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B6">
+        <v>49984.19</v>
+      </c>
+      <c r="C6">
+        <v>236.74600000000001</v>
+      </c>
+      <c r="D6">
+        <v>50.079000000000001</v>
+      </c>
+      <c r="E6">
+        <v>63.213999999999999</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>0.03</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="G6">
+        <v>36220</v>
+      </c>
+      <c r="H6">
+        <v>236.74600000000001</v>
+      </c>
+      <c r="I6">
+        <v>50.079000000000001</v>
+      </c>
+      <c r="J6">
+        <v>63.213999999999999</v>
+      </c>
+      <c r="M6">
+        <v>52.729354387626799</v>
+      </c>
+      <c r="N6">
+        <v>44.079365079364997</v>
+      </c>
+      <c r="O6">
+        <v>236.74603174603101</v>
+      </c>
+      <c r="P6">
+        <v>71159.494660943194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>61477.22</v>
+      </c>
+      <c r="C7">
+        <v>291.67899999999997</v>
+      </c>
+      <c r="D7">
+        <v>59.786000000000001</v>
+      </c>
+      <c r="E7">
+        <v>74.739000000000004</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>44610.21</v>
+      </c>
+      <c r="H7">
+        <v>291.67899999999997</v>
+      </c>
+      <c r="I7">
+        <v>59.786000000000001</v>
+      </c>
+      <c r="J7">
+        <v>74.739000000000004</v>
+      </c>
+      <c r="M7">
+        <v>62.5619273348468</v>
+      </c>
+      <c r="N7">
+        <v>51.285714285714199</v>
+      </c>
+      <c r="O7">
+        <v>291.67857142857099</v>
+      </c>
+      <c r="P7">
+        <v>88723.272120142996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>78028.34</v>
+      </c>
+      <c r="C8">
+        <v>354.92899999999997</v>
+      </c>
+      <c r="D8">
+        <v>66.713999999999999</v>
+      </c>
+      <c r="E8">
+        <v>82.825000000000003</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>57777.91</v>
+      </c>
+      <c r="H8">
+        <v>354.92899999999997</v>
+      </c>
+      <c r="I8">
+        <v>66.713999999999999</v>
+      </c>
+      <c r="J8">
+        <v>82.825000000000003</v>
+      </c>
+      <c r="M8">
+        <v>68.956002534110198</v>
+      </c>
+      <c r="N8">
+        <v>55.714285714285701</v>
+      </c>
+      <c r="O8">
+        <v>354.92857142857099</v>
+      </c>
+      <c r="P8">
+        <v>111729.366348314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>0.03</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="B9">
+        <v>143936.85999999999</v>
+      </c>
+      <c r="C9">
+        <v>575</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>99.007999999999996</v>
+      </c>
+      <c r="F9">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
-        <v>30</v>
+        <v>116483.4</v>
       </c>
       <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0.05</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>60</v>
-      </c>
-      <c r="B11">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>0.05</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>60</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>70</v>
-      </c>
-      <c r="B12">
-        <v>70</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>0.05</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>60</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>575</v>
+      </c>
+      <c r="I9">
         <v>80</v>
       </c>
-      <c r="B13">
-        <v>80</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>0.05</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>60</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
+      <c r="J9">
+        <v>99.007999999999996</v>
+      </c>
+      <c r="M9">
+        <v>88.138228131900405</v>
+      </c>
+      <c r="N9">
+        <v>69</v>
+      </c>
+      <c r="O9">
+        <v>575</v>
+      </c>
+      <c r="P9">
+        <v>197113.08191056401</v>
       </c>
     </row>
   </sheetData>

--- a/source/test/river/cross_section.xlsx
+++ b/source/test/river/cross_section.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mel.Meng\Documents\GitHub\SewerAnalysis\source\test\river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27A3379-0AA3-470A-984A-A19D5D50606F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFDE4E9-811B-46D7-8735-1EC83E0B5928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25236,7 +25236,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D11" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
